--- a/src/test/resources/TestCases/TitanTestCases.xlsx
+++ b/src/test/resources/TestCases/TitanTestCases.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="212">
   <si>
     <t>SI,No</t>
   </si>
@@ -1076,7 +1076,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1196,6 +1196,72 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
@@ -11881,10 +11947,10 @@
       <c r="F7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="109" t="s">
         <v>209</v>
       </c>
     </row>
